--- a/Surprise_Party/Surprise_Party/Data/File/StageFile/ObjectPos.xlsx
+++ b/Surprise_Party/Surprise_Party/Data/File/StageFile/ObjectPos.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ObjectPos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -270,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +477,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8181"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +754,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,7 +807,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -807,6 +825,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -842,41 +888,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -947,13 +958,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -989,34 +993,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1046,475 +1022,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1590,6 +1097,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8181"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1864,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:CO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1876,222 +1388,302 @@
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J1">
         <v>1</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
+        <v>3</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
         <v>5</v>
       </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>3</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
         <v>4</v>
       </c>
-      <c r="P1">
-        <v>2</v>
-      </c>
-      <c r="Q1">
-        <v>2</v>
-      </c>
-      <c r="R1">
-        <v>2</v>
-      </c>
-      <c r="S1">
-        <v>0</v>
-      </c>
-      <c r="T1">
-        <v>3</v>
-      </c>
-      <c r="U1">
-        <v>0</v>
-      </c>
-      <c r="V1">
-        <v>2</v>
-      </c>
-      <c r="W1">
-        <v>2</v>
-      </c>
-      <c r="X1">
-        <v>2</v>
-      </c>
-      <c r="Y1">
-        <v>2</v>
-      </c>
-      <c r="Z1">
-        <v>0</v>
-      </c>
-      <c r="AA1">
-        <v>0</v>
-      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>3</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>2</v>
+      </c>
+      <c r="AL1">
+        <v>2</v>
+      </c>
+      <c r="AM1">
+        <v>2</v>
+      </c>
+      <c r="AN1">
+        <v>2</v>
+      </c>
+      <c r="AO1" s="6"/>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>4</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>5</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>3</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>3</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>4</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>3</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>2</v>
-      </c>
-      <c r="AL2">
-        <v>2</v>
-      </c>
-      <c r="AM2">
-        <v>2</v>
-      </c>
-      <c r="AN2">
-        <v>2</v>
-      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="6"/>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3">
@@ -2236,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -2256,54 +1848,37 @@
       <c r="BH3">
         <v>3</v>
       </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>3</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
+      <c r="BI3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BM3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="6"/>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4">
@@ -2496,32 +2071,54 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT4">
         <v>0</v>
       </c>
+      <c r="BU4">
+        <v>3</v>
+      </c>
+      <c r="BV4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="7">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="7">
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="7">
+        <v>2</v>
+      </c>
+      <c r="CA4" s="7">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="6"/>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5">
@@ -2593,18 +2190,214 @@
       <c r="AA5">
         <v>0</v>
       </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>3</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>3</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>4</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>3</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>2</v>
+      </c>
+      <c r="BY5">
+        <v>2</v>
+      </c>
+      <c r="BZ5">
+        <v>2</v>
+      </c>
+      <c r="CA5">
+        <v>2</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>4</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>3</v>
+      </c>
+      <c r="CI5" s="7">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="7">
+        <v>2</v>
+      </c>
+      <c r="CL5" s="7">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="7">
+        <v>2</v>
+      </c>
+      <c r="CN5" s="7">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="6"/>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>0</v>
       </c>
       <c r="E6">
@@ -2658,188 +2451,196 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <v>2</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
+      <c r="V6" s="7">
+        <v>2</v>
+      </c>
+      <c r="W6" s="7">
+        <v>2</v>
+      </c>
+      <c r="X6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6"/>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="b">
+        <f>IF(AND(IF(COUNTIF(1:1, 3)=3,TRUE,FALSE),IF(COUNTIF(1:1,4)=2, TRUE,FALSE), IF(COUNTIF(1:1,5)=2,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="b">
+        <f>IF(AND(IF(COUNTIF(2:2, 3)=4,TRUE,FALSE),IF(COUNTIF(2:2,4)=3, TRUE,FALSE), IF(COUNTIF(2:2,5)=3,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="b">
+        <f>IF(AND(IF(COUNTIF(3:3, 3)=5,TRUE,FALSE),IF(COUNTIF(3:3,4)=4, TRUE,FALSE), IF(COUNTIF(3:3,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="b">
+        <f>IF(AND(IF(COUNTIF(4:4, 3)=6,TRUE,FALSE),IF(COUNTIF(4:4,4)=4, TRUE,FALSE), IF(COUNTIF(4:4,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="b">
+        <f>IF(AND(IF(COUNTIF(5:5, 3)=6,TRUE,FALSE),IF(COUNTIF(5:5,4)=5, TRUE,FALSE), IF(COUNTIF(5:5,5)=5,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="b">
-        <f>IF(AND(IF(COUNTIF(1:1, 3)=3,TRUE,FALSE),IF(COUNTIF(1:1,4)=2, TRUE,FALSE), IF(COUNTIF(1:1,5)=2,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="b">
-        <f>IF(AND(IF(COUNTIF(2:2, 3)=4,TRUE,FALSE),IF(COUNTIF(2:2,4)=3, TRUE,FALSE), IF(COUNTIF(2:2,5)=3,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="b">
-        <f>IF(AND(IF(COUNTIF(3:3, 3)=5,TRUE,FALSE),IF(COUNTIF(3:3,4)=4, TRUE,FALSE), IF(COUNTIF(3:3,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="b">
-        <f>IF(AND(IF(COUNTIF(4:4, 3)=6,TRUE,FALSE),IF(COUNTIF(4:4,4)=4, TRUE,FALSE), IF(COUNTIF(4:4,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="b">
-        <f>IF(AND(IF(COUNTIF(5:5, 3)=6,TRUE,FALSE),IF(COUNTIF(5:5,4)=5, TRUE,FALSE), IF(COUNTIF(5:5,5)=5,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="b">
+      <c r="E13" t="b">
         <f>IF(AND(IF(COUNTIF(6:6,3)=2, TRUE,FALSE),IF(COUNTIF(6:6,4)=1, TRUE,FALSE), IF(COUNTIF(6:6,5)=1,TRUE, FALSE))=TRUE, TRUE, FALSE)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:XFD5 A6">
-    <cfRule type="cellIs" dxfId="41" priority="18" operator="equal">
+  <conditionalFormatting sqref="A6 A2 A1:XFD1 AO2:XFD2 A3:XFD5">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A19">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+  <conditionalFormatting sqref="D8:D13">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:AA6">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AN2">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="31" priority="11">
-      <formula>$B$14=TRUE</formula>
+    <cfRule type="expression" dxfId="5" priority="33">
+      <formula>$E$8=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="22" priority="10">
-      <formula>$B$15=TRUE</formula>
+    <cfRule type="expression" dxfId="4" priority="34">
+      <formula>$E$9=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="30" priority="8">
-      <formula>$B$16=TRUE</formula>
+    <cfRule type="expression" dxfId="3" priority="35">
+      <formula>$E$10=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="29" priority="26">
-      <formula>$B$17=TRUE</formula>
+    <cfRule type="expression" dxfId="2" priority="36">
+      <formula>$E$11=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A6">
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>$B$18=TURE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:AA6">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
-      <formula>1</formula>
+    <cfRule type="expression" dxfId="1" priority="37">
+      <formula>$E$12=TURE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$B$19=TRUE</formula>
+    <cfRule type="expression" dxfId="0" priority="38">
+      <formula>$E$13=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Surprise_Party/Surprise_Party/Data/File/StageFile/ObjectPos.xlsx
+++ b/Surprise_Party/Surprise_Party/Data/File/StageFile/ObjectPos.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hera\Desktop\Surprise_Party\Surprise_Party\Surprise_Party\Data\File\StageFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019年度制作内容\_冬休みゲーム制作\Surprise_Party\Surprise_Party\Surprise_Party\Data\File\StageFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B9B0A3-2C63-48E6-9E47-AB985A29156E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9465"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectPos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>チュートリアル</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>絵画：１</t>
-    <rPh sb="0" eb="2">
-      <t>カイガ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -104,11 +106,50 @@
     <t>チュートリアル</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>絵画：0</t>
+    <rPh sb="0" eb="2">
+      <t>カイガ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>絵画＝４</t>
+    <rPh sb="0" eb="2">
+      <t>カイガ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>スイッチ＝４×２</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>絵画</t>
+    <rPh sb="0" eb="2">
+      <t>カイガ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>花瓶</t>
+    <rPh sb="0" eb="2">
+      <t>カビン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>音</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,7 +848,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -847,111 +888,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1375,22 +1311,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6">
         <v>0</v>
@@ -1401,13 +1337,13 @@
       <c r="D1" s="6">
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
+      <c r="E1" s="6">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
         <v>2</v>
       </c>
       <c r="H1">
@@ -1417,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -1441,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1">
         <v>0</v>
@@ -1450,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="U1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1">
         <v>0</v>
@@ -1474,13 +1410,13 @@
         <v>0</v>
       </c>
       <c r="AC1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF1">
         <v>4</v>
@@ -1511,9 +1447,9 @@
       </c>
       <c r="AO1" s="6"/>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -1524,13 +1460,13 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
         <v>0</v>
       </c>
       <c r="H2">
@@ -1543,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1561,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1673,9 +1609,9 @@
       </c>
       <c r="BB2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -1686,99 +1622,105 @@
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>5</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>4</v>
       </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
       <c r="AL3">
         <v>0</v>
       </c>
@@ -1786,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1801,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1831,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1855,22 +1797,22 @@
         <v>0</v>
       </c>
       <c r="BK3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="6"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -1881,20 +1823,20 @@
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -1906,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1921,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1936,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1948,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1957,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -2071,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>4</v>
@@ -2108,9 +2050,9 @@
       </c>
       <c r="CB4" s="6"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -2121,13 +2063,13 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5">
@@ -2137,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2197,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -2311,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>4</v>
@@ -2350,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF5">
         <v>4</v>
@@ -2387,7 +2329,7 @@
       </c>
       <c r="CO5" s="6"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2400,13 +2342,13 @@
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6">
@@ -2416,16 +2358,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2471,72 +2413,99 @@
       </c>
       <c r="AB6" s="6"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="b">
         <f>IF(AND(IF(COUNTIF(1:1, 3)=3,TRUE,FALSE),IF(COUNTIF(1:1,4)=2, TRUE,FALSE), IF(COUNTIF(1:1,5)=2,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="b">
         <f>IF(AND(IF(COUNTIF(2:2, 3)=4,TRUE,FALSE),IF(COUNTIF(2:2,4)=3, TRUE,FALSE), IF(COUNTIF(2:2,5)=3,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
         <v>1</v>
       </c>
+      <c r="G9">
+        <f>COUNTIF(3:3,3)</f>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(3:3,4)</f>
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIF(3:3,5)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="b">
-        <f>IF(AND(IF(COUNTIF(3:3, 3)=5,TRUE,FALSE),IF(COUNTIF(3:3,4)=4, TRUE,FALSE), IF(COUNTIF(3:3,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
+        <f>IF(AND(IF(COUNTIF(3:3, 3)=4,TRUE,FALSE),IF(COUNTIF(3:3,4)=4, TRUE,FALSE), IF(COUNTIF(3:3,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="b">
-        <f>IF(AND(IF(COUNTIF(4:4, 3)=6,TRUE,FALSE),IF(COUNTIF(4:4,4)=4, TRUE,FALSE), IF(COUNTIF(4:4,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <f>IF(AND(IF(COUNTIF(4:4, 3)=5,TRUE,FALSE),IF(COUNTIF(4:4,4)=4, TRUE,FALSE), IF(COUNTIF(4:4,5)=4,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4"/>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="b">
+        <f>IF(AND(IF(COUNTIF(5:5, 3)=5,TRUE,FALSE),IF(COUNTIF(5:5,4)=5, TRUE,FALSE), IF(COUNTIF(5:5,5)=5,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>10</v>
-      </c>
-      <c r="E12" t="b">
-        <f>IF(AND(IF(COUNTIF(5:5, 3)=6,TRUE,FALSE),IF(COUNTIF(5:5,4)=5, TRUE,FALSE), IF(COUNTIF(5:5,5)=5,TRUE,FALSE))=TRUE,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>11</v>
       </c>
       <c r="E13" t="b">
         <f>IF(AND(IF(COUNTIF(6:6,3)=2, TRUE,FALSE),IF(COUNTIF(6:6,4)=1, TRUE,FALSE), IF(COUNTIF(6:6,5)=1,TRUE, FALSE))=TRUE, TRUE, FALSE)</f>
